--- a/milk/static/error_code.xlsx
+++ b/milk/static/error_code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/papillon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Milk_DBServer/milk/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{157DC964-8AAD-1F43-8B92-4E90B8581E0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F6D7030-FBD6-EC4C-AA21-703F1432691D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{71290379-8F92-0D4E-832B-201309000689}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{71290379-8F92-0D4E-832B-201309000689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>error_code(仮)</t>
     <rPh sb="11" eb="12">
@@ -71,6 +71,23 @@
     <t>emailが既に登録されています</t>
     <rPh sb="6" eb="7">
       <t>ガスデニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>passwordが短すぎます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>passwordは半角英数字大文字小文字が含まれている必要があります</t>
+    <rPh sb="9" eb="11">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>エイスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒツヨウガアル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -104,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -172,13 +189,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,6 +239,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -508,16 +570,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A42DB4-57C9-DB46-B887-D79558E67A9F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" thickBot="1">
@@ -548,12 +610,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="21" thickBot="1">
-      <c r="A6" s="3">
+    <row r="6" spans="1:2">
+      <c r="A6" s="5">
         <v>101</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5">
+        <v>102</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" thickBot="1">
+      <c r="A8" s="9">
+        <v>103</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/milk/static/error_code.xlsx
+++ b/milk/static/error_code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Milk_DBServer/milk/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F6D7030-FBD6-EC4C-AA21-703F1432691D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E35128-19D5-0946-BBBC-F8F35798CB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{71290379-8F92-0D4E-832B-201309000689}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{71290379-8F92-0D4E-832B-201309000689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>error_code(仮)</t>
     <rPh sb="11" eb="12">
@@ -89,6 +89,10 @@
     <rPh sb="27" eb="29">
       <t>ヒツヨウガアル</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emailかパスワードが違います</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -225,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,6 +258,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A42DB4-57C9-DB46-B887-D79558E67A9F}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="A5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -626,12 +633,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="21" thickBot="1">
-      <c r="A8" s="9">
+    <row r="8" spans="1:2">
+      <c r="A8" s="10">
         <v>103</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21" thickBot="1">
+      <c r="A9" s="9">
+        <v>104</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
